--- a/App/django_files/media/Active_users Thu May 30 14:18:57 2024.xlsx
+++ b/App/django_files/media/Active_users Thu May 30 14:18:57 2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,6 +1768,854 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9120276636</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>علي محمدي</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>218500</v>
+      </c>
+      <c r="E29" t="n">
+        <v>218</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1372/08/29</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9900596829</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>باقري</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>415100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>415</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1376/07/01</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9337413104</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>رضا جندقي</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1353/10/05</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9179571223</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>فريد فرمانبري</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>871500</v>
+      </c>
+      <c r="E32" t="n">
+        <v>871</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1371/07/08</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9177843199</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>محمد پارسايان</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>749000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>749</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1367/08/20</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9017233883</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ارمين عبدي</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>534000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>534</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1369/09/15</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9391141819</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>شقايق داسکار</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>120500</v>
+      </c>
+      <c r="E35" t="n">
+        <v>120</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1363/01/12</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>زن</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9170619870</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>حبيب خرمگاه</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>133500</v>
+      </c>
+      <c r="E36" t="n">
+        <v>133</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1362/01/01</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9173911015</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>جلال زيبايي</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>141500</v>
+      </c>
+      <c r="E37" t="n">
+        <v>141</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1361/06/06</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9122472702</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>حبيب شاهي</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1337/11/10</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9173659837</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>حسين سرحدي</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>302500</v>
+      </c>
+      <c r="E39" t="n">
+        <v>302</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1367/07/01</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9128626576</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>مهدي ميزايي</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1218000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1376/09/25</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9366174552</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>احسان ارامش</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1869500</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1869</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1383/05/15</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9179571368</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>حسن جعفري</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>165100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>165</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1368/08/27</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>کارمند</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9136304134</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>خسرو عشقي</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1670</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1362/02/21</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9131912610</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>حسين کرمي</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2424500</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2424</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1348/02/01</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9171662366</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>محمدي</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>108000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>108</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1353/07/01</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9123322620</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>جواداميدي</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E46" t="n">
+        <v>160</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1361/11/15</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>مرد</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
